--- a/results/ArDoCo-BaselineCode.xlsx
+++ b/results/ArDoCo-BaselineCode.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan Keim\Projects\Repos\ArDoCo\ReplicationPackageICSE24\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B1E5DE-7CEB-40BE-AF82-71F5FC4847FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD304A66-FFE5-4443-9F43-6A205F5C4153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27450" yWindow="1965" windowWidth="16410" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28670" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAD-Code" sheetId="3" r:id="rId1"/>
@@ -167,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,20 +448,20 @@
   <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.1796875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
@@ -507,30 +507,30 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="F5" s="1">
         <v>0.8</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.84</v>
-      </c>
       <c r="G5" s="1">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="H5" s="1">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -553,18 +553,18 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="D7" s="1">
         <v>0.93</v>
       </c>
       <c r="E7" s="1">
-        <v>0.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F7" s="1">
         <v>0.92</v>
@@ -573,10 +573,10 @@
         <v>0.92</v>
       </c>
       <c r="H7" s="1">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
@@ -599,13 +599,13 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1">
         <f>SUM(C4:C8)/COUNT(C4:C8)</f>
-        <v>0.26599999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:H9" si="0">SUM(D4:D8)/COUNT(D4:D8)</f>
@@ -613,28 +613,28 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>0.36799999999999999</v>
+        <v>0.372</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.82</v>
+        <v>0.81199999999999994</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0.80999999999999994</v>
+        <v>0.79399999999999993</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.36399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1">
         <f>(C6*Projects!$C$6+C8*Projects!$C$8+C7*Projects!$C$7+C4*Projects!$C$4+C5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.46207631564415486</v>
+        <v>0.44801645590590317</v>
       </c>
       <c r="D10" s="1">
         <f>(D6*Projects!$C$6+D8*Projects!$C$8+D7*Projects!$C$7+D4*Projects!$C$4+D5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
@@ -642,19 +642,19 @@
       </c>
       <c r="E10" s="1">
         <f>(E6*Projects!$C$6+E8*Projects!$C$8+E7*Projects!$C$7+E4*Projects!$C$4+E5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.60252747252747252</v>
+        <v>0.60948202551217634</v>
       </c>
       <c r="F10" s="1">
         <f>(F6*Projects!$C$6+F8*Projects!$C$8+F7*Projects!$C$7+F4*Projects!$C$4+F5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.864783256944061</v>
+        <v>0.84652051466121814</v>
       </c>
       <c r="G10" s="1">
         <f>(G6*Projects!$C$6+G8*Projects!$C$8+G7*Projects!$C$7+G4*Projects!$C$4+G5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.84237782318184318</v>
+        <v>0.80585233861615768</v>
       </c>
       <c r="H10" s="1">
         <f>(H6*Projects!$C$6+H8*Projects!$C$8+H7*Projects!$C$7+H4*Projects!$C$4+H5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.57385278038544374</v>
+        <v>0.55522723507648131</v>
       </c>
     </row>
   </sheetData>
@@ -670,18 +670,18 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -709,7 +709,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -723,7 +723,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -737,7 +737,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -765,12 +765,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -784,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -798,7 +798,7 @@
         <v>13440</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -812,7 +812,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -826,7 +826,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -840,7 +840,7 @@
         <v>13360</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>8</v>
       </c>

--- a/results/ArDoCo-BaselineCode.xlsx
+++ b/results/ArDoCo-BaselineCode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dominik\Projects\Paper\2023\icse-2024\ReplicationPackageICSE24\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD304A66-FFE5-4443-9F43-6A205F5C4153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80131447-49AA-4BB2-9CCB-A9F46BE5D5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="28670" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8390" yWindow="4860" windowWidth="28670" windowHeight="15320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAD-Code" sheetId="3" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="B3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="E4" sqref="E4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,22 +512,22 @@
         <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G5" s="1">
         <v>0.76</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>0.71</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.66</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
@@ -558,22 +558,22 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="D7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.93</v>
       </c>
-      <c r="E7" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.92</v>
-      </c>
       <c r="G7" s="1">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="H7" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
@@ -593,7 +593,7 @@
         <v>0.74</v>
       </c>
       <c r="G8" s="3">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="H8" s="3">
         <v>0.28000000000000003</v>
@@ -605,11 +605,11 @@
       </c>
       <c r="C9" s="1">
         <f>SUM(C4:C8)/COUNT(C4:C8)</f>
-        <v>0.26</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" ref="D9:H9" si="0">SUM(D4:D8)/COUNT(D4:D8)</f>
-        <v>0.78</v>
+        <v>0.77799999999999991</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
@@ -617,15 +617,15 @@
       </c>
       <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>0.81199999999999994</v>
+        <v>0.82200000000000006</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
-        <v>0.79399999999999993</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0.35599999999999998</v>
+        <v>0.36799999999999999</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
@@ -634,27 +634,27 @@
       </c>
       <c r="C10" s="1">
         <f>(C6*Projects!$C$6+C8*Projects!$C$8+C7*Projects!$C$7+C4*Projects!$C$4+C5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.44801645590590317</v>
+        <v>0.47048208073333708</v>
       </c>
       <c r="D10" s="1">
         <f>(D6*Projects!$C$6+D8*Projects!$C$8+D7*Projects!$C$7+D4*Projects!$C$4+D5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.92451377767960685</v>
+        <v>0.92031089513501574</v>
       </c>
       <c r="E10" s="1">
         <f>(E6*Projects!$C$6+E8*Projects!$C$8+E7*Projects!$C$7+E4*Projects!$C$4+E5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.60948202551217634</v>
+        <v>0.61093323761665463</v>
       </c>
       <c r="F10" s="1">
         <f>(F6*Projects!$C$6+F8*Projects!$C$8+F7*Projects!$C$7+F4*Projects!$C$4+F5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.84652051466121814</v>
+        <v>0.86898613948865211</v>
       </c>
       <c r="G10" s="1">
         <f>(G6*Projects!$C$6+G8*Projects!$C$8+G7*Projects!$C$7+G4*Projects!$C$4+G5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.80585233861615768</v>
+        <v>0.8332740626207964</v>
       </c>
       <c r="H10" s="1">
         <f>(H6*Projects!$C$6+H8*Projects!$C$8+H7*Projects!$C$7+H4*Projects!$C$4+H5*Projects!$C$5)/SUM(Projects!$C$4:$C$8)</f>
-        <v>0.55522723507648131</v>
+        <v>0.58225854547462597</v>
       </c>
     </row>
   </sheetData>
